--- a/03. Engineering/036. Testing/Test Plan/pLED_Testplan_v1.0.xlsx
+++ b/03. Engineering/036. Testing/Test Plan/pLED_Testplan_v1.0.xlsx
@@ -724,6 +724,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,9 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,10 +1571,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="6">
-        <v>41655</v>
+        <v>41659</v>
       </c>
       <c r="G19" s="6">
-        <v>41655</v>
+        <v>41659</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -1616,7 +1616,7 @@
         <v>41697</v>
       </c>
       <c r="G21" s="13">
-        <v>41700</v>
+        <v>41703</v>
       </c>
       <c r="H21" s="12">
         <v>8</v>
@@ -1645,10 +1645,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="6">
-        <v>41655</v>
+        <v>41659</v>
       </c>
       <c r="G23" s="6">
-        <v>41655</v>
+        <v>41659</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -1690,7 +1690,7 @@
         <v>41697</v>
       </c>
       <c r="G25" s="13">
-        <v>41700</v>
+        <v>41703</v>
       </c>
       <c r="H25" s="12">
         <v>8</v>
@@ -2062,52 +2062,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="54" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
